--- a/Backend/Excel/Graduation Rate Eight Years.xlsx
+++ b/Backend/Excel/Graduation Rate Eight Years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC915BB-87A1-9E43-AA17-13A34EAED8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F4A2AD-EBC5-7D4E-A6C7-F56098035393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{F21ACA13-AE29-A648-9730-FBB29885E630}"/>
   </bookViews>
@@ -131,16 +131,16 @@
     <t>six year graduation count</t>
   </si>
   <si>
-    <t>eight year graduation count</t>
-  </si>
-  <si>
     <t>four year graduation rate</t>
   </si>
   <si>
     <t>six year graduation rate</t>
   </si>
   <si>
-    <t>eight year graduation rate</t>
+    <t>eightYearsGradCount</t>
+  </si>
+  <si>
+    <t>eightYearsGradRate</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,13 +537,13 @@
         <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>34</v>
